--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\SQ-PCB-Template\Project Outputs\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\Connector4Stepper\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F92DAA-55CE-45F4-8A21-BFE0FE297DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A15414-B81A-4C9D-8BCB-E2CF0629FAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{71B0332A-38DE-4B42-8029-DC1289E4B9E4}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{F6F850E4-4A83-4B02-970D-A1061B68634F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Designator</t>
   </si>
@@ -72,178 +72,61 @@
     <t>System</t>
   </si>
   <si>
-    <t>C1, C2, C13, C14, C15, C16</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GCM155R71H104KE02D</t>
-  </si>
-  <si>
-    <t>GCM155R71H104KE02D, Чип 0402 X7R 0.1uF +10% 50V,Конденсатор</t>
-  </si>
-  <si>
-    <t>0.1u</t>
-  </si>
-  <si>
-    <t>0402</t>
+    <t>A1, A2, AUX, ESTOP, X1, X2, Y1, Y2, Z1, Z2</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/309/DOC000309400.pdf</t>
+  </si>
+  <si>
+    <t>A1PWR, A2PWR, PWR_IN, X1PWR, X2PWR, Y1PWR, Y2PWR, Z1PWR, Z2PWR</t>
+  </si>
+  <si>
+    <t>D1, D2, D3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LTST-C194KRKT or SML-D12U1WT86</t>
+  </si>
+  <si>
+    <t>Red 620nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>0603 Lite-On</t>
   </si>
   <si>
     <t>SMD</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>DEBUG?</t>
-  </si>
-  <si>
-    <t>JST Sales</t>
-  </si>
-  <si>
-    <t>SM06B-SRSS-TB_LF__SN_</t>
-  </si>
-  <si>
-    <t>Connector Header Surface Mount, Right Angle 6 position 0.039 _1.00mm_</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>STM32G0B1CEU6</t>
-  </si>
-  <si>
-    <t>Integrated Circuit</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LTST-C19HE1WT</t>
-  </si>
-  <si>
-    <t>Blue/Green/Red</t>
-  </si>
-  <si>
-    <t>https://static.chipdip.ru/lib/039/DOC013039662.pdf</t>
-  </si>
-  <si>
-    <t>R11, R12, R17</t>
+    <t>P1, P2</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/095/DOC006095303.pdf</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
   </si>
   <si>
     <t>Yageo or NXP</t>
   </si>
   <si>
-    <t>RC0402FR-074K7L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 4.7 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>RC0402</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product0/9000189640</t>
-  </si>
-  <si>
-    <t>R14, R15, R16</t>
-  </si>
-  <si>
-    <t>RC0402FR-07330RL</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 330 Ом, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>Rv1</t>
-  </si>
-  <si>
-    <t>RC0402FR-074K3L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 4.3 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>4.3k</t>
-  </si>
-  <si>
-    <t>Rv2</t>
-  </si>
-  <si>
-    <t>RC0402FR-072K4L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 2.4 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>2.4k</t>
-  </si>
-  <si>
-    <t>SWD1</t>
-  </si>
-  <si>
-    <t>SM04B-GHS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>Conn Shrouded Header HDR 4 POS 1.25mm Solder ST SMD Reel</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>MaxLinear, Inc.</t>
-  </si>
-  <si>
-    <t>SPX3819M5-L-3-3/TR</t>
-  </si>
-  <si>
-    <t>Low Dropout Voltage Regulator, 3.3V 0.5A, В±1%, 2.5 to 16 Vin, 5-Pin SOT-23</t>
-  </si>
-  <si>
-    <t>3V3</t>
-  </si>
-  <si>
-    <t>SOT-23-5 Exar</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/2614478.pdf</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>CSTCE8M00G55-R0 or CSTCE8M00G52-R0</t>
-  </si>
-  <si>
-    <t>Ceramic Resonator 8MHz ??0.5% _Tol_ ??0.2% _Stability_ 33pF 40Ohm 3-Pin CSMD T/R</t>
-  </si>
-  <si>
-    <t>8MHz</t>
-  </si>
-  <si>
-    <t>SMD-3 Murata</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/en-eu/api/pdfdownloadapi?cate=&amp;partno=CSTCE8M00G55-R0</t>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_10.pdf</t>
   </si>
 </sst>
 </file>
@@ -620,8 +503,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF8147-7917-4D7D-9A40-C3D8FCB8059C}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803746C0-4160-48E4-9F50-47AF6D44FD9C}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,340 +563,136 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>